--- a/data/income_statement/3digits/total/473_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/473_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>473-Retail sale of automotive fuel in specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>473-Retail sale of automotive fuel in specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,170 +841,195 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>42365829.72341</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>53773167.57684001</v>
+        <v>53773167.57684</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>67560138.46849</v>
+        <v>67576644.02289</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>75965958.69647001</v>
+        <v>76485057.20378999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>85462215.12163</v>
+        <v>87890097.92703001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>93975255.52</v>
+        <v>95652593.78779998</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>94605973.39001</v>
+        <v>96854192.71453001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>105708534.69743</v>
+        <v>105832792.70336</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>132951905.33278</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>160282500.52482</v>
+        <v>160663990.84052</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>172821440.83039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>176829765.36908</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>172104418.9</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>41545560.14940999</v>
+        <v>41545560.14941</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>52472287.39436</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>65966996.02482999</v>
+        <v>65983459.53925999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>74103722.34644</v>
+        <v>74622303.30716</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>83372312.96485001</v>
+        <v>85759105.47378999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>91692765.61897001</v>
+        <v>93345662.40144002</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>91998966.71908</v>
+        <v>94175392.47087</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>102514031.68291</v>
+        <v>102634053.22315</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>129513325.69385</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>156341572.39296</v>
+        <v>156720779.96354</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>168056456.70673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>172022472.11737</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>167085460.104</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>371386.89232</v>
+        <v>371386.8923199999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>585698.9040499999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>677021.46345</v>
+        <v>677029.05978</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>827618.66122</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>830246.2240599999</v>
+        <v>849094.51893</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>814982.0784899999</v>
+        <v>818757.4681800001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>678916.23099</v>
+        <v>709492.47169</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1085286.61478</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>900709.6882599998</v>
+        <v>900709.68826</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>907969.50351</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1462569.06937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1462870.59958</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1532832.654</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>448882.68168</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>715181.2784300001</v>
+        <v>715181.2784299999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>916120.9802100001</v>
+        <v>916155.4238500001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1034617.68881</v>
+        <v>1035135.23541</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1259655.93272</v>
+        <v>1281897.93431</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1467507.82254</v>
+        <v>1488173.91818</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1928090.43994</v>
+        <v>1969307.77197</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2109216.39974</v>
+        <v>2113452.86543</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>2537869.95067</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3032958.62835</v>
+        <v>3035241.37347</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3302415.05429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3344422.65213</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3486126.142</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>322924.30939</v>
@@ -1115,34 +1041,39 @@
         <v>659927.53117</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>806966.2180999999</v>
+        <v>812695.23335</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>926944.6301799999</v>
+        <v>943908.22953</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1671849.71858</v>
+        <v>1682808.32549</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1291323.41801</v>
+        <v>1305527.9442</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1574365.00253</v>
+        <v>1576026.34213</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2185515.54906</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2754618.24736</v>
+        <v>2755146.21243</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3607547.0296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3650093.52784</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2763716.315</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>133564.70618</v>
@@ -1154,34 +1085,39 @@
         <v>300934.78237</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>403796.2959</v>
+        <v>403820.4225</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>462233.03145</v>
+        <v>471011.51444</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1239546.54441</v>
+        <v>1246318.79412</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>776785.4726199999</v>
+        <v>781180.06123</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>730572.0018099999</v>
+        <v>731032.24063</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1122740.59844</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1447765.19348</v>
+        <v>1448006.0368</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2256285.61268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2268012.0624</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1328792.919</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>163108.68085</v>
@@ -1193,55 +1129,60 @@
         <v>292561.99559</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>324699.74057</v>
+        <v>329608.61084</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>398567.04723</v>
+        <v>404428.24246</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>353989.14638</v>
+        <v>356284.20579</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>383800.5541799999</v>
+        <v>393285.41449</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>481357.3164299999</v>
+        <v>482558.41721</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>548913.37631</v>
+        <v>548913.3763100001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>507801.1050500001</v>
+        <v>508014.5251700001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>538169.4991600001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>552037.05675</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>541097.278</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>26250.92236</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>46531.93584999999</v>
+        <v>46531.93585</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>66430.75321</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>78470.18162999999</v>
+        <v>79266.20000999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>66144.5515</v>
+        <v>68468.47262999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>78314.02778999999</v>
+        <v>80205.32558</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>130737.39121</v>
+        <v>131062.46848</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>362435.6842899999</v>
@@ -1250,172 +1191,197 @@
         <v>513861.5743100001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>799051.94883</v>
+        <v>799125.65046</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>813091.9177600001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>830044.40869</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>893826.118</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>42042905.41401999</v>
+        <v>42042905.41402</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>53309775.04668</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>66900210.93731999</v>
+        <v>66916716.49172</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>75158992.47837001</v>
+        <v>75672361.97044</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>84535270.49145</v>
+        <v>86946189.69750001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>92303405.80142</v>
+        <v>93969785.46231002</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>93314649.972</v>
+        <v>95548664.77033</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>104134169.6949</v>
+        <v>104256766.36123</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>130766389.78372</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>157527882.27746</v>
+        <v>157908844.62809</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>169213893.80079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>173179671.84124</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>169340702.585</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>38370234.62535</v>
+        <v>38370234.62535001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>48865845.92958</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>61892852.3809</v>
+        <v>61907426.81744</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>69576981.14457999</v>
+        <v>70057550.42041001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>78464657.37773</v>
+        <v>80714341.51294002</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>85841942.89495</v>
+        <v>87395037.16780001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>85823017.32818002</v>
+        <v>87882896.23597999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>95471241.21139</v>
+        <v>95581641.44158</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>120760971.62395</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>146388901.10271</v>
+        <v>146756940.40163</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>156133994.58558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>159939894.1628</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>155501308.678</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>658924.8992900001</v>
+        <v>658924.89929</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>992545.1696199999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1290012.04232</v>
+        <v>1292721.53134</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>1672266.47392</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1847345.75716</v>
+        <v>1873304.65497</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1437510.0514</v>
+        <v>1451683.26098</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1184620.63569</v>
+        <v>1218634.78442</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2284897.21007</v>
+        <v>2290143.36482</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2541090.24601</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2620432.26808</v>
+        <v>2620791.95653</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3219279.3374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3324756.57233</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3839285.698</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>36478840.02059001</v>
+        <v>36478840.02059</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>46575645.76069</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>58967325.53288001</v>
+        <v>58979190.4126</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>66086251.42131999</v>
+        <v>66566746.24386</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>74604949.14538999</v>
+        <v>76766988.78256999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>81874436.07245</v>
+        <v>83379503.4789</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>82091372.90744001</v>
+        <v>84026597.61248</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>90359041.48977999</v>
+        <v>90461234.35047999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>114909540.29373</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>139189769.23403</v>
+        <v>139554275.48593</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>147284223.30469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>150954061.1486</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>146072425.939</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1155714.3875</v>
@@ -1427,34 +1393,39 @@
         <v>1562283.82768</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1745938.16258</v>
+        <v>1746012.61587</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1923258.77359</v>
+        <v>1984549.37056</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2343209.56253</v>
+        <v>2376396.55236</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2276823.07479</v>
+        <v>2364004.14359</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2574084.64131</v>
+        <v>2577045.85605</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3035936.31808</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4172607.45074</v>
+        <v>4175588.62308</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5063573.10795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5136590.98288</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5069489.421</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>76755.31797</v>
@@ -1463,19 +1434,19 @@
         <v>37501.40165</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>73230.97802</v>
+        <v>73231.04582</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>72525.08675999999</v>
+        <v>72525.08676000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>89103.70159</v>
+        <v>89498.70484000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>186787.20857</v>
+        <v>187453.87556</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>270200.71026</v>
+        <v>273659.69549</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>253217.87023</v>
@@ -1484,97 +1455,112 @@
         <v>274404.76613</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>406092.14986</v>
+        <v>406284.33609</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>566918.83554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>524485.45899</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>520107.62</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3672670.78867</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4443929.1171</v>
+        <v>4443929.117099999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5007358.55642</v>
+        <v>5009289.67428</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5582011.33379</v>
+        <v>5614811.55003</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6070613.113720001</v>
+        <v>6231848.184559999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6461462.90647</v>
+        <v>6574748.29451</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7491632.64382</v>
+        <v>7665768.53435</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8662928.483509999</v>
+        <v>8675124.91965</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>10005418.15977</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>11138981.17475</v>
+        <v>11151904.22646</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13079899.21521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13239777.67844</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>13839393.907</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2796782.84886</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3334629.65077</v>
+        <v>3334627.65126</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3879911.70514</v>
+        <v>3881736.26147</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4277031.051849999</v>
+        <v>4310348.61249</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4688031.361379999</v>
+        <v>4824329.984859999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5134351.72874</v>
+        <v>5227226.72405</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5829479.08447</v>
+        <v>5965985.14387</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6752256.40348</v>
+        <v>6763128.61332</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7555247.708190001</v>
+        <v>7555247.70819</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8876359.037379999</v>
+        <v>8909242.03623</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10072295.19365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10232145.49773</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10824367.344</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5096.251659999999</v>
+        <v>5096.25166</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>3188.30191</v>
@@ -1583,7 +1569,7 @@
         <v>5960.95024</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>8135.06472</v>
+        <v>8135.064719999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>4087.75343</v>
@@ -1601,133 +1587,153 @@
         <v>8544.33282</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4975.61819</v>
+        <v>4975.94226</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>40655.46769999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40806.15696</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5654.238</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>915765.8806099999</v>
+        <v>915765.8806100001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>1094653.35651</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1306482.35753</v>
+        <v>1307401.61229</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1495362.48479</v>
+        <v>1497081.11774</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1654879.53179</v>
+        <v>1682397.0886</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1805315.00536</v>
+        <v>1833060.06444</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1952367.87387</v>
+        <v>1995248.29141</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2388916.9091</v>
+        <v>2393653.48133</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2737482.07616</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3261767.66706</v>
+        <v>3268762.01021</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3764886.621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3816038.10722</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4138702.849</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1875920.71659</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2236787.99235</v>
+        <v>2236785.992839999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2567468.39737</v>
+        <v>2568373.69894</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2773533.50234</v>
+        <v>2805132.43003</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3029064.07616</v>
+        <v>3137845.14283</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3326550.45693</v>
+        <v>3391680.39316</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3871687.97696</v>
+        <v>3965313.61882</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4358156.93309</v>
+        <v>4364292.570700001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4809221.29921</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5609615.752129999</v>
+        <v>5635504.08376</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6266753.10495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6375301.233549999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6680010.257</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>875887.93981</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1109299.46633</v>
+        <v>1109301.46584</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1127446.85128</v>
+        <v>1127553.41281</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1304980.28194</v>
+        <v>1304462.93754</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1382581.75234</v>
+        <v>1407518.1997</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1327111.17773</v>
+        <v>1347521.57046</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1662153.55935</v>
+        <v>1699783.39048</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1910672.08003</v>
+        <v>1911996.30633</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2450170.45158</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2262622.13737</v>
+        <v>2242662.19023</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3007604.02156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3007632.18071</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3015026.563</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>351188.2315999999</v>
@@ -1736,43 +1742,48 @@
         <v>497994.83377</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>576601.89399</v>
+        <v>576608.64756</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>685610.1902599999</v>
+        <v>692340.4674</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>655818.99394</v>
+        <v>683123.3644200001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>876470.5153</v>
+        <v>893453.4785000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1040466.95324</v>
+        <v>1069294.01937</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1208248.2884</v>
+        <v>1293569.66539</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1559518.11627</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2375195.87147</v>
+        <v>2386855.84839</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2242750.19767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2290006.23912</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2437310.734</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>29339.57776</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>74519.87462</v>
+        <v>74519.87461999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>64230.93279000001</v>
@@ -1781,16 +1792,16 @@
         <v>68841.57629000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>34096.54567</v>
+        <v>34104.80471</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>81248.50077</v>
+        <v>81255.92003000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>31718.22322</v>
+        <v>31726.38333</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4431.17661</v>
+        <v>81654.11986000002</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>194230.00991</v>
@@ -1799,13 +1810,18 @@
         <v>167180.94665</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>298092.18967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>300442.18967</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>82973.541</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1280.39813</v>
@@ -1820,7 +1836,7 @@
         <v>4909.1375</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>36.21638</v>
+        <v>37.52638</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>518.3307199999999</v>
@@ -1829,7 +1845,7 @@
         <v>566.96084</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1331.41953</v>
+        <v>3417.45579</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>10198.99985</v>
@@ -1838,13 +1854,18 @@
         <v>5778.829900000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9666.741350000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9132.913200000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>6049.604</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>50410.2374</v>
@@ -1853,40 +1874,45 @@
         <v>52351.44693999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>66565.43032</v>
+        <v>66572.15889000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>91302.07883</v>
+        <v>91888.45490000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>72994.13133</v>
+        <v>75277.88632000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>111789.11599</v>
+        <v>113347.0709</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>137040.96724</v>
+        <v>142421.95615</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>137310.25025</v>
+        <v>138303.78805</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>194209.39627</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>281780.35932</v>
+        <v>283405.86307</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>396663.43965</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>404643.98027</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>362386.17</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9039.027050000001</v>
+        <v>9039.027049999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>10305.35005</v>
@@ -1898,7 +1924,7 @@
         <v>10556.26307</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>14220.73313</v>
+        <v>14356.01177</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>17890.05939</v>
@@ -1910,19 +1936,24 @@
         <v>16802.30237</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7845.6368</v>
+        <v>7845.636800000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>10052.79756</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>12649.64725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13070.35244</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11546.078</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12940.67184</v>
@@ -1934,16 +1965,16 @@
         <v>9241.868120000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8229.47848</v>
+        <v>8229.478480000002</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11721.97431</v>
+        <v>14947.78562</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>8386.40609</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>23193.27591</v>
+        <v>24501.0516</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>20273.97491</v>
@@ -1955,13 +1986,18 @@
         <v>17277.1235</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>31250.98475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>31268.3524</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>32817.792</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2896.19272</v>
@@ -1970,19 +2006,19 @@
         <v>1693.40435</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3381.607860000001</v>
+        <v>3381.60786</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>4150.78018</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3100.97993</v>
+        <v>3165.3469</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5753.54032</v>
+        <v>6104.757570000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11084.13338</v>
+        <v>11307.39239</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>4844.82677</v>
@@ -1994,16 +2030,21 @@
         <v>48358.24003</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>18296.96432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>18331.98305</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>28809.549</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>64139.82134</v>
+        <v>64139.82133999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>68216.27462000001</v>
@@ -2012,34 +2053,39 @@
         <v>82824.48989</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>82318.54496000001</v>
+        <v>82330.53317</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>76793.47278</v>
+        <v>77181.88248</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>132427.74771</v>
+        <v>132921.29199</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>192110.61692</v>
+        <v>193007.39498</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>174576.85577</v>
+        <v>177132.59562</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>170199.06838</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>797161.87097</v>
+        <v>797203.3092299999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>276614.85786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>285201.4528</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>671157.512</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>960.20852</v>
@@ -2054,10 +2100,10 @@
         <v>948.15765</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6321.18384</v>
+        <v>6321.183840000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>10085.1017</v>
+        <v>10093.43304</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>11243.5543</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>11566.02826</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4586.683</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1355.26383</v>
@@ -2096,10 +2147,10 @@
         <v>2040.87254</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1382.83479</v>
+        <v>2611.18046</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>494.22839</v>
+        <v>495.9537099999999</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>3449.63482</v>
@@ -2108,16 +2159,21 @@
         <v>3665.54464</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1769.25963</v>
+        <v>2006.72234</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1295.27321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1376.50691</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>4538.462</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>178826.83301</v>
@@ -2126,76 +2182,86 @@
         <v>276233.36224</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>334094.14623</v>
+        <v>334094.17123</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>411665.26902</v>
+        <v>417797.18188</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>434492.88403</v>
+        <v>455690.0638599999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>506988.8778199999</v>
+        <v>520325.0283100001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>616872.3232100001</v>
+        <v>637880.70224</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>827846.71744</v>
+        <v>830309.83727</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>921769.86814</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1034995.9213</v>
+        <v>1044751.4935</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1186654.07135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1214972.48012</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1232445.343</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>167341.33569</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>176613.53725</v>
+        <v>176615.04991</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>259996.62599</v>
+        <v>260028.65898</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>240737.2542</v>
+        <v>242995.21958</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>387108.97906</v>
+        <v>393320.8143499999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>411157.78357</v>
+        <v>415364.94905</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>599037.62026</v>
+        <v>606009.1584600001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>606674.90144</v>
+        <v>608742.29159</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>657620.4383100001</v>
+        <v>657620.43831</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1574247.02649</v>
+        <v>1581930.45402</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>914831.9357200001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>919671.0116699999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1399473.94</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>21743.35435</v>
@@ -2210,31 +2276,36 @@
         <v>26669.89233</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>29402.30016</v>
+        <v>30300.38571</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>47147.84689</v>
+        <v>47571.56219</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>61673.33829000001</v>
+        <v>62040.74851999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>88177.82880000002</v>
+        <v>88215.17104999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>106162.54875</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>131762.32632</v>
+        <v>131782.24095</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>161419.57172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>161916.04022</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>163883.172</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>47200.06267</v>
@@ -2243,22 +2314,22 @@
         <v>34170.68679</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>45624.23136</v>
+        <v>45632.64857</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>70153.14683</v>
+        <v>72406.34100999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>67631.22111000001</v>
+        <v>71979.83537</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>92775.21249999999</v>
+        <v>93582.69909000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>91599.21406</v>
+        <v>93184.75536</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>105695.78823</v>
+        <v>107027.0807</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>86349.33744</v>
@@ -2267,19 +2338,24 @@
         <v>117789.83172</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>90426.44077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>91239.75631999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>72332.717</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>548.96606</v>
+        <v>548.9660600000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>818.79104</v>
+        <v>818.7910400000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>836.75252</v>
@@ -2288,10 +2364,10 @@
         <v>1490.65023</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>448.04649</v>
+        <v>531.1426300000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>402.30649</v>
+        <v>572.57551</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>432.37425</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>8501.78919</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1587.645</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>58657.92092</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>65606.97193000001</v>
+        <v>65606.97192999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>115979.29503</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>63998.54801000001</v>
+        <v>64001.62358</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>165978.74212</v>
+        <v>166172.58301</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>146948.17</v>
+        <v>147070.89482</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>294857.7665</v>
+        <v>295424.14135</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>237264.33874</v>
+        <v>237962.52913</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>275554.07666</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1130114.98204</v>
+        <v>1135723.55569</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>353934.89292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>355738.44254</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>958585.417</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>495.6635600000001</v>
@@ -2366,10 +2452,10 @@
         <v>294.37353</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>6725.5664</v>
+        <v>6725.566400000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10764.69089</v>
+        <v>10764.83589</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>12945.77915</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>11814.93709</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>16217.138</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>133.5445</v>
@@ -2408,10 +2499,10 @@
         <v>327.62801</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>107.60689</v>
+        <v>141.12389</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3757.63946</v>
+        <v>4210.64433</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>5.16106</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>100.73153</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>72.994</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>38561.82363000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>55616.53860000001</v>
+        <v>55618.05126000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>72370.49734</v>
+        <v>72394.11312000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>77416.19184</v>
+        <v>77417.88747</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>116595.47477</v>
+        <v>117283.67322</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>113011.94991</v>
+        <v>115661.25766</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>133771.50855</v>
+        <v>137770.7155</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>153499.62061</v>
+        <v>153500.18565</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>162195.45557</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>171113.94165</v>
+        <v>173168.8809</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>288633.5725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>290359.31478</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>186794.857</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>445591.31923</v>
@@ -2477,37 +2578,42 @@
         <v>425594.78711</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>539492.86712</v>
+        <v>539718.52166</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>788629.26622</v>
+        <v>789118.1480599999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>762476.8367999999</v>
+        <v>777164.9905999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>981935.1267500001</v>
+        <v>999486.8245099999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1224460.16206</v>
+        <v>1259648.96244</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1505766.23542</v>
+        <v>1512195.75789</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1899181.73937</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2713312.24512</v>
+        <v>2719698.19096</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2688834.40137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2727833.37076</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2442905.606</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>416187.6039</v>
@@ -2516,37 +2622,42 @@
         <v>394415.25885</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>498018.04952</v>
+        <v>498243.7040600001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>738163.34773</v>
+        <v>738652.2295700001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>707957.65764</v>
+        <v>721328.06298</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>915930.78399</v>
+        <v>928860.80576</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1097521.59278</v>
+        <v>1132316.95593</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1366589.3189</v>
+        <v>1373018.84137</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1719691.80051</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2462394.15329</v>
+        <v>2468728.43728</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2548587.76898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2586876.18639</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2315642.341</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>29403.71533</v>
@@ -2561,13 +2672,13 @@
         <v>50465.91849</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>54519.17916</v>
+        <v>55836.92761999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>66004.34276</v>
+        <v>70626.01875</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>126938.56928</v>
+        <v>127332.00651</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>139176.91652</v>
@@ -2576,55 +2687,65 @@
         <v>179489.93886</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>250918.09183</v>
+        <v>250969.75368</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>140246.63239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>140957.18437</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>127263.265</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>614143.5164900001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1005085.97574</v>
+        <v>1005086.46259</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>904559.25216</v>
+        <v>904414.8797299999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>961223.95178</v>
+        <v>964690.0373</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>888814.9304200001</v>
+        <v>920155.75917</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>810488.7827100001</v>
+        <v>826123.2753999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>879122.7302699999</v>
+        <v>903419.28895</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1006479.23157</v>
+        <v>1084627.92224</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1452886.39017</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>350258.73723</v>
+        <v>327889.39364</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1646687.88214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1650134.0374</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1609957.751</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>153302.45775</v>
@@ -2633,37 +2754,42 @@
         <v>201758.94509</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>272224.66886</v>
+        <v>272250.21971</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>357372.7447100001</v>
+        <v>359171.15113</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>410214.25388</v>
+        <v>419950.54164</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>513606.75359</v>
+        <v>531297.0985300001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>640923.93978</v>
+        <v>655927.65811</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>656111.0121599999</v>
+        <v>656702.6534699999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>796325.0121800001</v>
+        <v>796325.01218</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>727897.9318299999</v>
+        <v>731256.84399</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>959480.8996600001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1018580.03305</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1048257.081</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6379.61573</v>
@@ -2675,19 +2801,19 @@
         <v>5601.72039</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>11726.28886</v>
+        <v>11738.29642</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>11629.16026</v>
+        <v>11771.59983</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>16456.73232</v>
+        <v>16473.2062</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>8653.009189999999</v>
+        <v>9045.897650000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>44401.44452999999</v>
+        <v>44401.44453</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>10868.56021</v>
@@ -2696,13 +2822,18 @@
         <v>12216.36192</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>14141.0594</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>16601.92176</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>16178.592</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>146922.84202</v>
@@ -2711,76 +2842,86 @@
         <v>196665.20549</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>266622.9484699999</v>
+        <v>266648.49932</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>345646.45585</v>
+        <v>347432.85471</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>398585.09362</v>
+        <v>408178.94181</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>497150.02127</v>
+        <v>514823.8923300001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>632270.93059</v>
+        <v>646881.76046</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>611709.5676299999</v>
+        <v>612301.20894</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>785456.4519700001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>715681.56991</v>
+        <v>719040.48207</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>945339.84026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1001978.11129</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1032078.489</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>94037.4255</v>
+        <v>94037.42550000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>149439.31065</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>978358.6655</v>
+        <v>978518.43457</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>143624.68595</v>
+        <v>143719.64051</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>190352.10431</v>
+        <v>192488.31261</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>622978.16019</v>
+        <v>635826.4746900001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>277832.71788</v>
+        <v>282275.59934</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>947588.1422100001</v>
+        <v>949383.7929099998</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>288830.84974</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>856941.1518400001</v>
+        <v>861011.31516</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>529414.8823099999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>543394.20634</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>440713.063</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1348.23804</v>
@@ -2798,10 +2939,10 @@
         <v>2005.05646</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3865.96575</v>
+        <v>3950.84355</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3326.79561</v>
+        <v>3412.93093</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>3088.85201</v>
@@ -2813,52 +2954,62 @@
         <v>6062.99101</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5471.2953</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5783.65109</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17035.394</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>12982.45206</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9057.00936</v>
+        <v>9057.009360000002</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>18252.20386</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5636.48297</v>
+        <v>5663.08558</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5991.914809999999</v>
+        <v>6194.13823</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9754.704709999998</v>
+        <v>9799.981119999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11075.64066</v>
+        <v>11133.72969</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>23859.79507</v>
+        <v>24207.96526</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>17271.8124</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11149.82223</v>
+        <v>11198.00013</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>32127.57918</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>31930.38959</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>18250.521</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>79706.73540000001</v>
@@ -2867,76 +3018,86 @@
         <v>137923.35829</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>958550.84942</v>
+        <v>958710.61849</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>135811.29156</v>
+        <v>135879.64351</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>182355.13304</v>
+        <v>184289.11792</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>609357.48973</v>
+        <v>622075.6500199999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>263430.28161</v>
+        <v>267728.93872</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>920639.4951299998</v>
+        <v>922086.9756400001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>268884.19365</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>839728.3385999999</v>
+        <v>843750.3240199999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>491816.00783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>505680.1656599999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>405427.148</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>673408.54874</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1057405.61018</v>
+        <v>1057406.09703</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>198425.25552</v>
+        <v>198146.66487</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1174972.01054</v>
+        <v>1180141.54792</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1108677.07999</v>
+        <v>1147617.9882</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>701117.3761100001</v>
+        <v>721593.8992400001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1242213.95217</v>
+        <v>1277071.34772</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>715002.10152</v>
+        <v>791946.7828</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1960380.55261</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>221215.51722</v>
+        <v>198134.92247</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2076753.89949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2125319.86411</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2217501.769</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>138803.62243</v>
@@ -2945,73 +3106,81 @@
         <v>183927.48923</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>197240.07373</v>
+        <v>197249.66968</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>205252.8387</v>
+        <v>206674.68172</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>229369.1151</v>
+        <v>237547.44984</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>208821.36493</v>
+        <v>214978.83857</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>256638.14085</v>
+        <v>263003.87478</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>303483.1455399999</v>
+        <v>304128.90866</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>345008.51737</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>335822.79774</v>
+        <v>336875.32262</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>532288.1066599999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>540399.6419800001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>551822.755</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>534604.9263099999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>873478.12095</v>
+        <v>873478.6078</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1185.181789999995</v>
+        <v>896.9951900000032</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>969719.17184</v>
+        <v>973466.8662</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>879307.9648899999</v>
+        <v>910070.5383599999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>492296.01118</v>
+        <v>506615.06067</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>985575.8113200002</v>
+        <v>1014067.47294</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>411518.95598</v>
+        <v>487817.87414</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1615372.03524</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-114607.28052</v>
+        <v>-138740.40015</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1544465.79283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1584920.22213</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1665679.014</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9937</v>
@@ -3038,34 +3210,37 @@
         <v>10184</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10173</v>
+        <v>10177</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10002</v>
+        <v>10019</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9616</v>
+        <v>9794</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9488</v>
+        <v>9691</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9402</v>
+        <v>9683</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9768</v>
+        <v>9793</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9947</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9283</v>
+        <v>10305</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10605</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>